--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
@@ -712,26 +715,7 @@
     <t>Goals can be established prior to there being an intention to start pursuing them; e.g. Goals for post-surgical recovery established prior to surgery.</t>
   </si>
   <si>
-    <t>Codes describing events that can trigger the initiation of a goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Goal.start[x]:startDate</t>
-  </si>
-  <si>
-    <t>startDate</t>
   </si>
   <si>
     <t>Goal.target</t>
@@ -1317,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1350,7 +1334,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3098,11 +3082,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3146,10 +3132,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3175,16 +3161,16 @@
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3212,10 +3198,10 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3233,7 +3219,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3251,18 +3237,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3288,16 +3274,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3322,13 +3308,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3346,7 +3332,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3361,21 +3347,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3398,17 +3384,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3457,7 +3443,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3472,21 +3458,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3509,17 +3495,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3544,29 +3530,31 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3587,25 +3575,23 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3617,20 +3603,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3679,19 +3667,19 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3700,15 +3688,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3722,7 +3710,7 @@
         <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
@@ -3731,20 +3719,16 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3792,25 +3776,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3818,21 +3802,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3844,7 +3828,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>240</v>
@@ -3852,7 +3836,9 @@
       <c r="M23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3907,19 +3893,19 @@
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3927,14 +3913,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3947,10 +3933,10 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>132</v>
@@ -3964,7 +3950,9 @@
       <c r="N24" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4030,7 +4018,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4045,39 +4033,35 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4086,7 +4070,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4101,13 +4085,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4125,25 +4109,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4151,10 +4135,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4177,15 +4161,17 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4195,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4213,10 +4199,10 @@
         <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4234,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4243,7 +4229,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4260,10 +4246,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4277,7 +4263,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4286,18 +4272,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4321,10 +4307,10 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4345,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4354,7 +4340,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4366,15 +4352,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4388,7 +4374,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4397,7 +4383,7 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>267</v>
@@ -4405,10 +4391,10 @@
       <c r="M28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4456,7 +4442,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4505,10 +4491,10 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>272</v>
@@ -4588,15 +4574,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4610,16 +4596,16 @@
         <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>277</v>
@@ -4678,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4699,15 +4685,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4718,7 +4704,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4727,21 +4713,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="O31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4789,13 +4775,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4807,18 +4793,18 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4832,7 +4818,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -4841,17 +4827,19 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4900,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4915,21 +4903,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4952,19 +4940,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4989,13 +4977,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5013,7 +5001,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5028,10 +5016,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5039,10 +5027,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5065,19 +5053,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5102,13 +5090,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5126,7 +5114,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5150,121 +5138,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM35">
+  <autoFilter ref="A1:AM34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5274,7 +5149,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -804,8 +804,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco-gas-codes-temporary"/&gt;
-    &lt;code value="goal-attainment-scaling"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="68489"/&gt;
+    &lt;display value="Goal attainment scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Person-Centered Goal Attainment</t>
+    <t>Person-Centered GAS Goal</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,9 +422,6 @@
     <t>Goal.extension</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>gas-scaling</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling}
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2273,13 +2273,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2318,17 +2318,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2340,7 +2340,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2354,23 +2354,23 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>87</v>
@@ -2439,7 +2439,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2451,7 +2451,7 @@
         <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2491,7 +2491,7 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>147</v>
@@ -2564,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2991,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>177</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3829,7 +3829,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>240</v>
@@ -3900,7 +3900,7 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
@@ -3940,7 +3940,7 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>245</v>
@@ -4013,7 +4013,7 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-goal-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-attainment-scaling}
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -904,7 +904,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
@@ -1336,7 +1336,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -603,13 +603,25 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcome category</t>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+  </si>
+  <si>
+    <t>Goal.category:domainCategory</t>
+  </si>
+  <si>
+    <t>domainCategory</t>
+  </si>
+  <si>
+    <t>Person-Centered Outcome domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -904,11 +916,11 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(Condition|Observation|RiskAssessment)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Condition</t>
+    <t>Issues addressed by this goal</t>
   </si>
   <si>
     <t>The identified conditions and other health record elements that are intended to be addressed by the goal.</t>
@@ -917,10 +929,30 @@
     <t>Allows specific goals to explicitly linked to the concerns they're dealing with - makes the goal more understandable.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=SUBJ].target[classCode=CONC]</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Goal.addresses:SupportedAddresses</t>
+  </si>
+  <si>
+    <t>SupportedAddresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+</t>
+  </si>
+  <si>
+    <t>What Matters Assessment or Statement</t>
+  </si>
+  <si>
+    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>
@@ -1302,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,9 +1343,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1336,7 +1368,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2922,7 +2954,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3033,10 +3065,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3085,11 +3117,9 @@
       <c r="X16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3133,12 +3163,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3147,10 +3179,10 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3165,13 +3197,11 @@
         <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3199,10 +3229,10 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3220,13 +3250,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3238,18 +3268,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3257,13 +3287,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3275,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3309,13 +3339,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3333,10 +3363,10 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3348,21 +3378,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3385,17 +3415,19 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3420,13 +3452,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3444,7 +3476,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3459,21 +3491,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3496,17 +3528,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3555,10 +3587,10 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3570,21 +3602,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3592,7 +3624,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3604,22 +3636,20 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3668,19 +3698,19 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3689,15 +3719,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3711,7 +3741,7 @@
         <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
@@ -3720,16 +3750,20 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3777,25 +3811,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3803,21 +3837,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3829,17 +3863,15 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3888,25 +3920,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3921,7 +3953,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3934,26 +3966,24 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4001,7 +4031,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4019,7 +4049,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4027,33 +4057,33 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>249</v>
@@ -4061,8 +4091,12 @@
       <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4071,64 +4105,64 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4136,10 +4170,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4162,17 +4196,15 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4182,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4200,10 +4232,10 @@
         <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4221,7 +4253,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4230,7 +4262,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4247,10 +4279,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4264,7 +4296,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4273,18 +4305,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4308,10 +4340,10 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4332,7 +4364,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4341,7 +4373,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4353,15 +4385,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4375,7 +4407,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4384,18 +4416,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4443,7 +4475,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4464,15 +4496,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4492,19 +4524,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4554,7 +4586,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4575,7 +4607,7 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -4597,25 +4629,25 @@
         <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4686,15 +4718,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4705,7 +4737,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4714,21 +4746,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4776,13 +4808,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4794,18 +4826,18 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4828,19 +4860,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4877,19 +4907,17 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4904,23 +4932,25 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4932,7 +4962,7 @@
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>76</v>
@@ -4941,19 +4971,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4978,13 +5006,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5002,7 +5030,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5020,18 +5048,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5054,19 +5082,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5115,7 +5143,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5130,17 +5158,243 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
     </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM34">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5150,7 +5404,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -603,7 +603,7 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered category</t>
+    <t>Person-Centered Goal category</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
@@ -2954,13 +2954,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="317">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,28 +597,30 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
+    <t>Goal.category:pco-goal</t>
+  </si>
+  <si>
+    <t>pco-goal</t>
   </si>
   <si>
     <t>Person-Centered Goal category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
-  </si>
-  <si>
-    <t>Goal.category:domainCategory</t>
-  </si>
-  <si>
-    <t>domainCategory</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
+    &lt;code value="person-centered-goal"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Goal.category:goal-domain</t>
+  </si>
+  <si>
+    <t>goal-domain</t>
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -1367,7 +1369,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3065,7 +3067,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3100,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>76</v>
@@ -3115,11 +3117,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3228,11 +3232,9 @@
       <c r="X17" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3276,10 +3278,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3305,16 +3307,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3342,11 +3344,11 @@
         <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3381,18 +3383,18 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3418,16 +3420,16 @@
         <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3452,14 +3454,14 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3491,21 +3493,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3528,17 +3530,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3587,7 +3589,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -3602,21 +3604,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3639,17 +3641,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3698,7 +3700,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3719,15 +3721,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3750,19 +3752,19 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3811,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3820,10 +3822,10 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3837,10 +3839,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3863,13 +3865,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3920,7 +3922,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3938,7 +3940,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3946,10 +3948,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3975,10 +3977,10 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>149</v>
@@ -4031,7 +4033,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4049,7 +4051,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4057,14 +4059,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4086,10 +4088,10 @@
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>149</v>
@@ -4144,7 +4146,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4170,10 +4172,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4199,10 +4201,10 @@
         <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4214,7 +4216,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4232,11 +4234,11 @@
         <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4262,7 +4264,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4279,10 +4281,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4305,16 +4307,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4343,7 +4345,7 @@
         <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4364,7 +4366,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4373,7 +4375,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4390,10 +4392,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4416,17 +4418,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4475,7 +4477,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4496,15 +4498,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4527,16 +4529,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4586,7 +4588,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4607,15 +4609,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4638,16 +4640,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4697,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4723,10 +4725,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4749,16 +4751,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4808,7 +4810,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4829,15 +4831,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4860,17 +4862,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4907,7 +4909,7 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -4917,7 +4919,7 @@
         <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4935,21 +4937,21 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -4971,17 +4973,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5030,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5048,18 +5050,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5082,19 +5084,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5143,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5158,10 +5160,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5169,10 +5171,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5198,16 +5200,16 @@
         <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5235,11 +5237,11 @@
         <v>181</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5282,10 +5284,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5308,19 +5310,19 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="O36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5369,7 +5371,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="317">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -590,28 +590,26 @@
     <t>http://hl7.org/fhir/ValueSet/goal-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-goal</t>
-  </si>
-  <si>
-    <t>pco-goal</t>
-  </si>
-  <si>
-    <t>Person-Centered Goal category</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
-    &lt;code value="person-centered-goal"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Goal.category:pco-category</t>
+  </si>
+  <si>
+    <t>pco-category</t>
+  </si>
+  <si>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -668,9 +666,6 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -2956,7 +2951,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3067,7 +3062,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3102,28 +3097,26 @@
         <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3167,13 +3160,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
@@ -3198,7 +3191,7 @@
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>179</v>
@@ -3234,7 +3227,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3278,10 +3271,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3307,16 +3300,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3344,10 +3337,10 @@
         <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3365,7 +3358,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3383,18 +3376,18 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3420,16 +3413,16 @@
         <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3447,7 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>209</v>
@@ -3478,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -606,9 +606,6 @@
     <t>Person-Centered category</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -1364,7 +1367,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3112,11 +3115,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3160,13 +3163,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
@@ -3191,7 +3194,7 @@
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>179</v>
@@ -3223,9 +3226,11 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Z17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3447,13 +3452,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3486,21 +3491,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3523,17 +3528,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3582,7 +3587,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -3597,21 +3602,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3634,17 +3639,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3693,7 +3698,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3714,15 +3719,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3745,19 +3750,19 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3806,7 +3811,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3815,10 +3820,10 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3832,10 +3837,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3858,13 +3863,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3915,7 +3920,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3933,7 +3938,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3941,10 +3946,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3970,10 +3975,10 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>149</v>
@@ -4026,7 +4031,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4044,7 +4049,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4052,14 +4057,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4081,10 +4086,10 @@
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>149</v>
@@ -4139,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4165,10 +4170,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4194,10 +4199,10 @@
         <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4209,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4227,10 +4232,10 @@
         <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4248,7 +4253,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4257,7 +4262,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4274,10 +4279,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4300,16 +4305,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4338,7 +4343,7 @@
         <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4364,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4368,7 +4373,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4385,10 +4390,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4411,17 +4416,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4470,7 +4475,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4491,15 +4496,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4522,16 +4527,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4581,7 +4586,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4602,15 +4607,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4633,16 +4638,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4692,7 +4697,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4718,10 +4723,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4744,16 +4749,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4803,7 +4808,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4824,15 +4829,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4855,17 +4860,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4902,7 +4907,7 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -4912,7 +4917,7 @@
         <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4930,21 +4935,21 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -4966,17 +4971,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5025,7 +5030,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5043,18 +5048,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5077,19 +5082,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5138,7 +5143,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5153,10 +5158,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5164,10 +5169,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5193,16 +5198,16 @@
         <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5230,10 +5235,10 @@
         <v>181</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5251,7 +5256,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5277,10 +5282,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5303,19 +5308,19 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5364,7 +5369,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,16 +597,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-category</t>
-  </si>
-  <si>
-    <t>pco-category</t>
-  </si>
-  <si>
-    <t>Person-Centered category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+    <t>Goal.category:what-matters</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters observation category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -615,13 +615,13 @@
     <t>goal-domain</t>
   </si>
   <si>
-    <t>Person-Centered Outcome domain category</t>
+    <t>Person-Centered Outcome goal domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-goal-domains-example-vs</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -945,11 +945,11 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Statement</t>
+    <t>What Matters Assessment or Priority</t>
   </si>
   <si>
     <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
@@ -1368,7 +1368,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
 </t>
   </si>
   <si>
-    <t>Goal Attainment Scaling</t>
+    <t>Goal Attainment Scaling Extension</t>
   </si>
   <si>
     <t>Goal Attainment Scaling (GAS) is an extension used to specify five levels of attainment for a person-centered goal.</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,16 +597,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:what-matters</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters observation category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
+    <t>Goal.category:well-being</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -945,14 +945,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
+    <t>Well-Being Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -606,7 +606,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,16 +597,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:well-being</t>
-  </si>
-  <si>
-    <t>well-being</t>
-  </si>
-  <si>
-    <t>Well-Being resource category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
+    <t>Goal.category:pco</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Person-Centered resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -945,14 +945,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>Well-Being Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
+    <t>What Matters Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses What Matters observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-gas-goal-profile.xlsx
+++ b/StructureDefinition-pco-gas-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="68489"/&gt;
+    &lt;code value="107332-9"/&gt;
     &lt;display value="Goal attainment scale"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -945,7 +945,7 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment)
 </t>
   </si>
   <si>
